--- a/excel/logistic_regression.xlsx
+++ b/excel/logistic_regression.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\studyAI\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29DD38C2-0D49-46D1-8E65-29C8BC4504DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C4370C6-D35F-467F-96BB-FC2361B2C765}"/>
+    <workbookView xWindow="-240" yWindow="60" windowWidth="25600" windowHeight="14900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>theta(5,)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,16 +42,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>H_theta_x(6,)
-X dot theta</t>
+    <t>H_theta_x(6,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X dot theta(6,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X^T(5,6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H-theta_x-y(6,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X^T dot (H-theta_x-y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gradient</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,8 +107,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +153,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -109,12 +175,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -127,9 +223,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="11">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -187,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -239,7 +351,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -433,63 +545,85 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B2205D-92D0-49E9-A9D0-C2CA181848C1}">
-  <dimension ref="B8:M14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B8:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
+    <row r="8" spans="2:21">
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="P8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="4">
+        <f>AVERAGE(U9:U14)</f>
+        <v>0.69314718055994484</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
         <v>10</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>11</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>12</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>13</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>14</v>
       </c>
       <c r="K9" s="2">
@@ -499,24 +633,40 @@
         <f>E9*$C$9+F9*$C$10+G9*$C$11+H9*$C$12+I9*$C$13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="O9">
+        <f>1/(1+EXP(-M9))</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q9">
+        <f>-1*(K9*LN(O9))</f>
+        <v>69.314718055994533</v>
+      </c>
+      <c r="S9">
+        <f>(1-K9)*LN(1-O9)</f>
+        <v>68.621570875434585</v>
+      </c>
+      <c r="U9">
+        <f>Q9-S9</f>
+        <v>0.69314718055994717</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
         <v>20</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>21</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>22</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>23</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>24</v>
       </c>
       <c r="K10" s="2">
@@ -526,24 +676,40 @@
         <f t="shared" ref="M10:M14" si="0">E10*$C$9+F10*$C$10+G10*$C$11+H10*$C$12+I10*$C$13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="O10">
+        <f t="shared" ref="O10:O14" si="1">1/(1+EXP(-M10))</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="Q10:Q14" si="2">-1*(K10*LN(O10))</f>
+        <v>70.00786523655448</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ref="S10:S14" si="3">(1-K10)*LN(1-O10)</f>
+        <v>69.314718055994533</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ref="U10:U14" si="4">Q10-S10</f>
+        <v>0.69314718055994717</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
         <v>30</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>31</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>32</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>33</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>34</v>
       </c>
       <c r="K11" s="2">
@@ -553,24 +719,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>70.701012417114413</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>70.00786523655448</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="4"/>
+        <v>0.69314718055993296</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
         <v>40</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>41</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>42</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>43</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>44</v>
       </c>
       <c r="K12" s="2">
@@ -580,24 +762,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>71.39415959767436</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>70.701012417114413</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="4"/>
+        <v>0.69314718055994717</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
         <v>50</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>51</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>52</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>53</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>54</v>
       </c>
       <c r="K13" s="2">
@@ -607,21 +805,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E14">
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>72.087306778234307</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>71.39415959767436</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="4"/>
+        <v>0.69314718055994717</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="E14" s="2">
         <v>60</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>61</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>62</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>63</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>64</v>
       </c>
       <c r="K14" s="2">
@@ -630,11 +844,212 @@
       <c r="M14">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>72.780453958794254</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>72.087306778234307</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="4"/>
+        <v>0.69314718055994717</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17">
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>60</v>
+      </c>
+      <c r="M17">
+        <f>O9-K9</f>
+        <v>-99.5</v>
+      </c>
+      <c r="O17">
+        <f>E17*$M$17+F17*$M$18+G17*$M$19+H17*$M$20+I17*$M$21+J17*$M$22</f>
+        <v>-21595</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>O17*(1/6)</f>
+        <v>-3599.1666666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17">
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <v>31</v>
+      </c>
+      <c r="H18">
+        <v>41</v>
+      </c>
+      <c r="I18">
+        <v>51</v>
+      </c>
+      <c r="J18">
+        <v>61</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:M22" si="5">O10-K10</f>
+        <v>-100.5</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18:O22" si="6">E18*$M$17+F18*$M$18+G18*$M$19+H18*$M$20+I18*$M$21+J18*$M$22</f>
+        <v>-22207</v>
+      </c>
+      <c r="Q18" s="4">
+        <f t="shared" ref="Q18:Q21" si="7">O18*(1/6)</f>
+        <v>-3701.1666666666665</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17">
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>32</v>
+      </c>
+      <c r="H19">
+        <v>42</v>
+      </c>
+      <c r="I19">
+        <v>52</v>
+      </c>
+      <c r="J19">
+        <v>62</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>-101.5</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>-22819</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="7"/>
+        <v>-3803.1666666666665</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17">
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>23</v>
+      </c>
+      <c r="G20">
+        <v>33</v>
+      </c>
+      <c r="H20">
+        <v>43</v>
+      </c>
+      <c r="I20">
+        <v>53</v>
+      </c>
+      <c r="J20">
+        <v>63</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>-102.5</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="6"/>
+        <v>-23431</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" si="7"/>
+        <v>-3905.1666666666665</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17">
+      <c r="E21">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <v>34</v>
+      </c>
+      <c r="H21">
+        <v>44</v>
+      </c>
+      <c r="I21">
+        <v>54</v>
+      </c>
+      <c r="J21">
+        <v>64</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>-103.5</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>-24043</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="7"/>
+        <v>-4007.1666666666665</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17">
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>-104.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excel/logistic_regression.xlsx
+++ b/excel/logistic_regression.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\studyAI\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201B0A38-30ED-4EF1-BD26-637D9D6B9B93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="60" windowWidth="25600" windowHeight="14900"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="polynomial" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -23,12 +27,15 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>theta(5,)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,13 +83,65 @@
   <si>
     <t>Gradient</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>degree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>degree=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>degree=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>degree=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +192,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +247,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -210,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -229,19 +323,34 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -299,7 +408,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -351,7 +460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -545,39 +654,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B8:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17:Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="41.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
@@ -607,7 +719,7 @@
         <v>0.69314718055994484</v>
       </c>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
         <v>0</v>
       </c>
@@ -650,7 +762,7 @@
         <v>0.69314718055994717</v>
       </c>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
         <v>0</v>
       </c>
@@ -693,7 +805,7 @@
         <v>0.69314718055994717</v>
       </c>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
         <v>0</v>
       </c>
@@ -736,7 +848,7 @@
         <v>0.69314718055993296</v>
       </c>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
         <v>0</v>
       </c>
@@ -779,7 +891,7 @@
         <v>0.69314718055994717</v>
       </c>
     </row>
-    <row r="13" spans="2:21">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C13" s="2">
         <v>0</v>
       </c>
@@ -822,7 +934,7 @@
         <v>0.69314718055994717</v>
       </c>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E14" s="2">
         <v>60</v>
       </c>
@@ -862,7 +974,7 @@
         <v>0.69314718055994717</v>
       </c>
     </row>
-    <row r="16" spans="2:21">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,7 +988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="5:17">
+    <row r="17" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E17">
         <v>10</v>
       </c>
@@ -908,7 +1020,7 @@
         <v>-3599.1666666666665</v>
       </c>
     </row>
-    <row r="18" spans="5:17">
+    <row r="18" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E18">
         <v>11</v>
       </c>
@@ -932,7 +1044,7 @@
         <v>-100.5</v>
       </c>
       <c r="O18">
-        <f t="shared" ref="O18:O22" si="6">E18*$M$17+F18*$M$18+G18*$M$19+H18*$M$20+I18*$M$21+J18*$M$22</f>
+        <f t="shared" ref="O18:O21" si="6">E18*$M$17+F18*$M$18+G18*$M$19+H18*$M$20+I18*$M$21+J18*$M$22</f>
         <v>-22207</v>
       </c>
       <c r="Q18" s="4">
@@ -940,7 +1052,7 @@
         <v>-3701.1666666666665</v>
       </c>
     </row>
-    <row r="19" spans="5:17">
+    <row r="19" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E19">
         <v>12</v>
       </c>
@@ -972,7 +1084,7 @@
         <v>-3803.1666666666665</v>
       </c>
     </row>
-    <row r="20" spans="5:17">
+    <row r="20" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E20">
         <v>13</v>
       </c>
@@ -1004,7 +1116,7 @@
         <v>-3905.1666666666665</v>
       </c>
     </row>
-    <row r="21" spans="5:17">
+    <row r="21" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E21">
         <v>14</v>
       </c>
@@ -1036,7 +1148,7 @@
         <v>-4007.1666666666665</v>
       </c>
     </row>
-    <row r="22" spans="5:17">
+    <row r="22" spans="5:17" x14ac:dyDescent="0.2">
       <c r="M22">
         <f t="shared" si="5"/>
         <v>-104.5</v>
@@ -1045,11 +1157,249 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE60E372-7E1C-4951-9FCB-FD4B48746D0D}">
+  <dimension ref="B2:O6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="8.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="7"/>
+    <col min="6" max="6" width="4.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <f>D4</f>
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <f>POWER(C4,2)</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <f>C4*D4</f>
+        <v>4</v>
+      </c>
+      <c r="K4" s="7">
+        <f>POWER(D4,2)</f>
+        <v>16</v>
+      </c>
+      <c r="L4" s="7">
+        <f>POWER(C4,3)</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <f>POWER(C4,2)*D4</f>
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <f>C4*POWER(D4,2)</f>
+        <v>16</v>
+      </c>
+      <c r="O4" s="7">
+        <f>POWER(D4,3)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G6" si="0">C5</f>
+        <v>2</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H6" si="1">D5</f>
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:I6" si="2">POWER(C5,2)</f>
+        <v>4</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" ref="J5:J6" si="3">C5*D5</f>
+        <v>10</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" ref="K5:K6" si="4">POWER(D5,2)</f>
+        <v>25</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" ref="L5:L6" si="5">POWER(C5,3)</f>
+        <v>8</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" ref="M5:M6" si="6">POWER(C5,2)*D5</f>
+        <v>20</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" ref="N5:N6" si="7">C5*POWER(D5,2)</f>
+        <v>50</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" ref="O5:O6" si="8">POWER(D5,3)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="8"/>
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/excel/logistic_regression.xlsx
+++ b/excel/logistic_regression.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\studyAI\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201B0A38-30ED-4EF1-BD26-637D9D6B9B93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14900" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_function" sheetId="1" r:id="rId1"/>
     <sheet name="polynomial" sheetId="2" r:id="rId2"/>
+    <sheet name="cost_function_reg" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -27,15 +25,12 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>theta(5,)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,13 +130,41 @@
   </si>
   <si>
     <t>X9</t>
+  </si>
+  <si>
+    <t>theta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J+p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum theta^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +238,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -304,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -329,28 +360,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -408,7 +445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -460,7 +497,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -654,42 +691,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:U22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17:Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="41.42578125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:21">
       <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
@@ -719,7 +756,7 @@
         <v>0.69314718055994484</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:21">
       <c r="C9" s="2">
         <v>0</v>
       </c>
@@ -762,7 +799,7 @@
         <v>0.69314718055994717</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:21">
       <c r="C10" s="2">
         <v>0</v>
       </c>
@@ -805,7 +842,7 @@
         <v>0.69314718055994717</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:21">
       <c r="C11" s="2">
         <v>0</v>
       </c>
@@ -848,7 +885,7 @@
         <v>0.69314718055993296</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:21">
       <c r="C12" s="2">
         <v>0</v>
       </c>
@@ -891,7 +928,7 @@
         <v>0.69314718055994717</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:21">
       <c r="C13" s="2">
         <v>0</v>
       </c>
@@ -934,7 +971,7 @@
         <v>0.69314718055994717</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:21">
       <c r="E14" s="2">
         <v>60</v>
       </c>
@@ -974,7 +1011,7 @@
         <v>0.69314718055994717</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:21">
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,7 +1025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:17">
       <c r="E17">
         <v>10</v>
       </c>
@@ -1020,7 +1057,7 @@
         <v>-3599.1666666666665</v>
       </c>
     </row>
-    <row r="18" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:17">
       <c r="E18">
         <v>11</v>
       </c>
@@ -1052,7 +1089,7 @@
         <v>-3701.1666666666665</v>
       </c>
     </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:17">
       <c r="E19">
         <v>12</v>
       </c>
@@ -1084,7 +1121,7 @@
         <v>-3803.1666666666665</v>
       </c>
     </row>
-    <row r="20" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:17">
       <c r="E20">
         <v>13</v>
       </c>
@@ -1116,7 +1153,7 @@
         <v>-3905.1666666666665</v>
       </c>
     </row>
-    <row r="21" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:17">
       <c r="E21">
         <v>14</v>
       </c>
@@ -1148,7 +1185,7 @@
         <v>-4007.1666666666665</v>
       </c>
     </row>
-    <row r="22" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:17">
       <c r="M22">
         <f t="shared" si="5"/>
         <v>-104.5</v>
@@ -1157,7 +1194,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1167,91 +1204,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE60E372-7E1C-4951-9FCB-FD4B48746D0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="8.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="7"/>
-    <col min="6" max="6" width="4.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="8.7109375" style="7"/>
+    <col min="2" max="2" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="7"/>
+    <col min="6" max="6" width="4.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15">
       <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="8" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="2:15">
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15">
       <c r="C4" s="7">
         <v>1</v>
       </c>
@@ -1298,7 +1335,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15">
       <c r="C5" s="7">
         <v>2</v>
       </c>
@@ -1345,7 +1382,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15">
       <c r="C6" s="7">
         <v>3</v>
       </c>
@@ -1400,6 +1437,120 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f>POWER(C4,2)</f>
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <f>$E$3*C4/$B$3+C4</f>
+        <v>2.0459999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f>POWER(C5,2)</f>
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <f>$E$3*C5/$B$3+C5</f>
+        <v>3.069</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="F6" s="12">
+        <f>SUM(F4:F5)</f>
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <f>E3*F6/2*B3</f>
+        <v>1495</v>
+      </c>
+      <c r="H6" s="11">
+        <f>D3+G6</f>
+        <v>1513</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excel/logistic_regression.xlsx
+++ b/excel/logistic_regression.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\studyAI\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5610B1A9-09D0-4F91-BBC7-5C0EF4CEEF1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14900" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cost_function" sheetId="1" r:id="rId1"/>
     <sheet name="polynomial" sheetId="2" r:id="rId2"/>
     <sheet name="cost_function_reg" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,12 +28,15 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>theta(5,)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,14 +163,30 @@
   </si>
   <si>
     <t>gradient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>correction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theta^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular Gradient</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,15 +199,6 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -204,14 +217,6 @@
       <color theme="11"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -246,8 +251,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +325,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -304,90 +345,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -691,504 +741,630 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:U22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:AD17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17:Q21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12:V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="41.42578125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="41.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="5" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="41.375" style="8"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:21">
-      <c r="B8" s="5" t="s">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U8" s="4">
-        <f>AVERAGE(U9:U14)</f>
-        <v>0.69314718055994484</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21">
-      <c r="C9" s="2">
+      <c r="U3" s="11">
+        <f>AVERAGE(U4:U9)</f>
+        <v>-7.7646703913869404</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="14"/>
+      <c r="X3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="8" t="str">
+        <f>_xlfn.CONCAT("[",E4,",",F4,",",G4,",",H4,",",I4,"]",",")</f>
+        <v>[0.01,0.02,0.03,0.04,0.05],</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="C4" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="K4" s="12">
+        <v>100</v>
+      </c>
+      <c r="M4" s="8">
+        <f>E4*$C$4+F4*$C$5+G4*$C$6+H4*$C$7+I4*$C$8</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O4" s="8">
+        <f>1/(1+EXP(-M4))</f>
+        <v>0.51124810194685477</v>
+      </c>
+      <c r="Q4" s="8">
+        <f>-1*(K4*LN(O4))</f>
+        <v>67.090028420540634</v>
+      </c>
+      <c r="S4" s="8">
+        <f>(1-K4)*LN(1-O4)</f>
+        <v>70.874128136335202</v>
+      </c>
+      <c r="U4" s="8">
+        <f>Q4-S4</f>
+        <v>-3.7840997157945679</v>
+      </c>
+      <c r="W4" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y4" s="8">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
+      <c r="AA4" s="15">
+        <f>W4*Y9/2</f>
+        <v>8.2799999999999985E-2</v>
+      </c>
+      <c r="AC4" s="11">
+        <f>U3+AA4</f>
+        <v>-7.6818703913869406</v>
+      </c>
+      <c r="AD4" s="8" t="str">
+        <f>_xlfn.CONCAT("[",E5,",",F5,",",G5,",",H5,",",I5,"]",",")</f>
+        <v>[0.02,0.03,0.04,0.05,0.06],</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="C5" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="12">
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="K5" s="12">
+        <v>101</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" ref="M5:M9" si="0">E5*$C$4+F5*$C$5+G5*$C$6+H5*$C$7+I5*$C$8</f>
+        <v>0.06</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" ref="O5:O9" si="1">1/(1+EXP(-M5))</f>
+        <v>0.51499550161940999</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" ref="Q5:Q9" si="2">-1*(K5*LN(O5))</f>
+        <v>67.023308420690242</v>
+      </c>
+      <c r="S5" s="8">
+        <f t="shared" ref="S5:S9" si="3">(1-K5)*LN(1-O5)</f>
+        <v>72.359711307614077</v>
+      </c>
+      <c r="U5" s="8">
+        <f t="shared" ref="U5:U9" si="4">Q5-S5</f>
+        <v>-5.3364028869238354</v>
+      </c>
+      <c r="Y5" s="8">
+        <f t="shared" ref="Y5:Y8" si="5">POWER(C5,2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="AD5" s="8" t="str">
+        <f>_xlfn.CONCAT("[",E6,",",F6,",",G6,",",H6,",",I6,"]",",")</f>
+        <v>[0.03,0.04,0.05,0.06,0.07],</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="C6" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="I6" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K6" s="12">
+        <v>102</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.51874121587853517</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="2"/>
+        <v>66.947714364333123</v>
+      </c>
+      <c r="S6" s="8">
+        <f t="shared" si="3"/>
+        <v>73.866364223506295</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" si="4"/>
+        <v>-6.918649859173172</v>
+      </c>
+      <c r="Y6" s="8">
+        <f t="shared" si="5"/>
+        <v>0.09</v>
+      </c>
+      <c r="AD6" s="8" t="str">
+        <f>_xlfn.CONCAT("[",E7,",",F7,",",G7,",",H7,",",I7,"]",",")</f>
+        <v>[0.04,0.05,0.06,0.07,0.08],</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="C7" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="H7" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="K7" s="12">
+        <v>103</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.52248482479180014</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="2"/>
+        <v>66.863411919637841</v>
+      </c>
+      <c r="S7" s="8">
+        <f t="shared" si="3"/>
+        <v>75.394252580612232</v>
+      </c>
+      <c r="U7" s="8">
+        <f t="shared" si="4"/>
+        <v>-8.5308406609743912</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" si="5"/>
+        <v>0.09</v>
+      </c>
+      <c r="AD7" s="8" t="str">
+        <f>_xlfn.CONCAT("[",E8,",",F8,",",G8,",",H8,",",I8,"]",",")</f>
+        <v>[0.05,0.06,0.07,0.08,0.09],</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="C8" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="G8" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="K8" s="12">
+        <v>104</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.5262259093720687</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="2"/>
+        <v>66.770565986664323</v>
+      </c>
+      <c r="S8" s="8">
+        <f t="shared" si="3"/>
+        <v>76.943541313715627</v>
+      </c>
+      <c r="U8" s="8">
+        <f t="shared" si="4"/>
+        <v>-10.172975327051304</v>
+      </c>
+      <c r="Y8" s="8">
+        <f t="shared" si="5"/>
+        <v>0.09</v>
+      </c>
+      <c r="AD8" s="8" t="str">
+        <f>_xlfn.CONCAT("[",E9,",",F9,",",G9,",",H9,",",I9,"]",",")</f>
+        <v>[0.06,0.07,0.08,0.09,0.1],</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="E9" s="12">
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="12">
+        <v>105</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.52996405176457173</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="2"/>
+        <v>66.66934066753943</v>
+      </c>
+      <c r="S9" s="8">
+        <f t="shared" si="3"/>
+        <v>78.514394565943803</v>
+      </c>
+      <c r="U9" s="8">
+        <f t="shared" si="4"/>
+        <v>-11.845053898404373</v>
+      </c>
+      <c r="Y9" s="15">
+        <f>AVERAGE(Y4:Y8)</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="D11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2">
+      <c r="P11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="2">
-        <v>12</v>
-      </c>
-      <c r="H9" s="2">
-        <v>13</v>
-      </c>
-      <c r="I9" s="2">
-        <v>14</v>
-      </c>
-      <c r="K9" s="2">
-        <v>100</v>
-      </c>
-      <c r="M9">
-        <f>E9*$C$9+F9*$C$10+G9*$C$11+H9*$C$12+I9*$C$13</f>
+      <c r="R11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="E12" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="J12" s="12">
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="M12" s="8">
+        <f>O4-K4</f>
+        <v>-99.488751898053138</v>
+      </c>
+      <c r="O12" s="8">
+        <f>E12*$M$12+F12*$M$13+G12*$M$14+H12*$M$15+I12*$M$16+J12*$M$17</f>
+        <v>-21.590016840905641</v>
+      </c>
+      <c r="Q12" s="11">
+        <f>O12*(1/6)</f>
+        <v>-3.5983361401509399</v>
+      </c>
+      <c r="S12" s="8">
         <v>0</v>
       </c>
-      <c r="O9">
-        <f>1/(1+EXP(-M9))</f>
-        <v>0.5</v>
-      </c>
-      <c r="Q9">
-        <f>-1*(K9*LN(O9))</f>
-        <v>69.314718055994533</v>
-      </c>
-      <c r="S9">
-        <f>(1-K9)*LN(1-O9)</f>
-        <v>68.621570875434585</v>
-      </c>
-      <c r="U9">
-        <f>Q9-S9</f>
-        <v>0.69314718055994717</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21">
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>20</v>
-      </c>
-      <c r="F10" s="2">
-        <v>21</v>
-      </c>
-      <c r="G10" s="2">
-        <v>22</v>
-      </c>
-      <c r="H10" s="2">
-        <v>23</v>
-      </c>
-      <c r="I10" s="2">
-        <v>24</v>
-      </c>
-      <c r="K10" s="2">
-        <v>101</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ref="M10:M14" si="0">E10*$C$9+F10*$C$10+G10*$C$11+H10*$C$12+I10*$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f t="shared" ref="O10:O14" si="1">1/(1+EXP(-M10))</f>
-        <v>0.5</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" ref="Q10:Q14" si="2">-1*(K10*LN(O10))</f>
-        <v>70.00786523655448</v>
-      </c>
-      <c r="S10">
-        <f t="shared" ref="S10:S14" si="3">(1-K10)*LN(1-O10)</f>
-        <v>69.314718055994533</v>
-      </c>
-      <c r="U10">
-        <f t="shared" ref="U10:U14" si="4">Q10-S10</f>
-        <v>0.69314718055994717</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21">
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2">
-        <v>31</v>
-      </c>
-      <c r="G11" s="2">
-        <v>32</v>
-      </c>
-      <c r="H11" s="2">
-        <v>33</v>
-      </c>
-      <c r="I11" s="2">
-        <v>34</v>
-      </c>
-      <c r="K11" s="2">
-        <v>102</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>70.701012417114413</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="3"/>
-        <v>70.00786523655448</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="4"/>
-        <v>0.69314718055993296</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21">
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>40</v>
-      </c>
-      <c r="F12" s="2">
-        <v>41</v>
-      </c>
-      <c r="G12" s="2">
-        <v>42</v>
-      </c>
-      <c r="H12" s="2">
-        <v>43</v>
-      </c>
-      <c r="I12" s="2">
-        <v>44</v>
-      </c>
-      <c r="K12" s="2">
-        <v>103</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="2"/>
-        <v>71.39415959767436</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="3"/>
-        <v>70.701012417114413</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="4"/>
-        <v>0.69314718055994717</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21">
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>50</v>
-      </c>
-      <c r="F13" s="2">
-        <v>51</v>
-      </c>
-      <c r="G13" s="2">
-        <v>52</v>
-      </c>
-      <c r="H13" s="2">
-        <v>53</v>
-      </c>
-      <c r="I13" s="2">
-        <v>54</v>
-      </c>
-      <c r="K13" s="2">
-        <v>104</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="2"/>
-        <v>72.087306778234307</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="3"/>
-        <v>71.39415959767436</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="4"/>
-        <v>0.69314718055994717</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21">
-      <c r="E14" s="2">
-        <v>60</v>
-      </c>
-      <c r="F14" s="2">
-        <v>61</v>
-      </c>
-      <c r="G14" s="2">
-        <v>62</v>
-      </c>
-      <c r="H14" s="2">
-        <v>63</v>
-      </c>
-      <c r="I14" s="2">
-        <v>64</v>
-      </c>
-      <c r="K14" s="2">
-        <v>105</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="2"/>
-        <v>72.780453958794254</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="3"/>
-        <v>72.087306778234307</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="4"/>
-        <v>0.69314718055994717</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21">
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="5:17">
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>20</v>
-      </c>
-      <c r="G17">
-        <v>30</v>
-      </c>
-      <c r="H17">
-        <v>40</v>
-      </c>
-      <c r="I17">
-        <v>50</v>
-      </c>
-      <c r="J17">
-        <v>60</v>
-      </c>
-      <c r="M17">
-        <f>O9-K9</f>
-        <v>-99.5</v>
-      </c>
-      <c r="O17">
-        <f>E17*$M$17+F17*$M$18+G17*$M$19+H17*$M$20+I17*$M$21+J17*$M$22</f>
-        <v>-21595</v>
-      </c>
-      <c r="Q17" s="4">
-        <f>O17*(1/6)</f>
-        <v>-3599.1666666666665</v>
-      </c>
-    </row>
-    <row r="18" spans="5:17">
-      <c r="E18">
-        <v>11</v>
-      </c>
-      <c r="F18">
-        <v>21</v>
-      </c>
-      <c r="G18">
-        <v>31</v>
-      </c>
-      <c r="H18">
-        <v>41</v>
-      </c>
-      <c r="I18">
-        <v>51</v>
-      </c>
-      <c r="J18">
-        <v>61</v>
-      </c>
-      <c r="M18">
-        <f t="shared" ref="M18:M22" si="5">O10-K10</f>
-        <v>-100.5</v>
-      </c>
-      <c r="O18">
-        <f t="shared" ref="O18:O21" si="6">E18*$M$17+F18*$M$18+G18*$M$19+H18*$M$20+I18*$M$21+J18*$M$22</f>
-        <v>-22207</v>
-      </c>
-      <c r="Q18" s="4">
-        <f t="shared" ref="Q18:Q21" si="7">O18*(1/6)</f>
-        <v>-3701.1666666666665</v>
-      </c>
-    </row>
-    <row r="19" spans="5:17">
-      <c r="E19">
-        <v>12</v>
-      </c>
-      <c r="F19">
-        <v>22</v>
-      </c>
-      <c r="G19">
-        <v>32</v>
-      </c>
-      <c r="H19">
-        <v>42</v>
-      </c>
-      <c r="I19">
-        <v>52</v>
-      </c>
-      <c r="J19">
-        <v>62</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="5"/>
-        <v>-101.5</v>
-      </c>
-      <c r="O19">
+      <c r="V12" s="11">
+        <f>Q12+S12</f>
+        <v>-3.5983361401509399</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="E13" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="J13" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" ref="M13:M17" si="6">O5-K5</f>
+        <v>-100.48500449838059</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" ref="O13:O16" si="7">E13*$M$12+F13*$M$13+G13*$M$14+H13*$M$15+I13*$M$16+J13*$M$17</f>
+        <v>-27.708780244851908</v>
+      </c>
+      <c r="Q13" s="11">
+        <f t="shared" ref="Q13:Q16" si="8">O13*(1/6)</f>
+        <v>-4.6181300408086514</v>
+      </c>
+      <c r="S13" s="8">
+        <f>$W$4*C5</f>
+        <v>0.69</v>
+      </c>
+      <c r="V13" s="11">
+        <f t="shared" ref="V13:V16" si="9">Q13+S13</f>
+        <v>-3.9281300408086515</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="E14" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="I14" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="M14" s="8">
         <f t="shared" si="6"/>
-        <v>-22819</v>
-      </c>
-      <c r="Q19" s="4">
+        <v>-101.48125878412147</v>
+      </c>
+      <c r="O14" s="8">
         <f t="shared" si="7"/>
-        <v>-3803.1666666666665</v>
-      </c>
-    </row>
-    <row r="20" spans="5:17">
-      <c r="E20">
-        <v>13</v>
-      </c>
-      <c r="F20">
-        <v>23</v>
-      </c>
-      <c r="G20">
-        <v>33</v>
-      </c>
-      <c r="H20">
-        <v>43</v>
-      </c>
-      <c r="I20">
-        <v>53</v>
-      </c>
-      <c r="J20">
-        <v>63</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="5"/>
-        <v>-102.5</v>
-      </c>
-      <c r="O20">
+        <v>-33.827543648798169</v>
+      </c>
+      <c r="Q14" s="11">
+        <f t="shared" si="8"/>
+        <v>-5.6379239414663616</v>
+      </c>
+      <c r="S14" s="8">
+        <f t="shared" ref="S14:S16" si="10">$W$4*C6</f>
+        <v>0.69</v>
+      </c>
+      <c r="V14" s="11">
+        <f t="shared" si="9"/>
+        <v>-4.9479239414663621</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="E15" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="H15" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="M15" s="8">
         <f t="shared" si="6"/>
-        <v>-23431</v>
-      </c>
-      <c r="Q20" s="4">
+        <v>-102.4775151752082</v>
+      </c>
+      <c r="O15" s="8">
         <f t="shared" si="7"/>
-        <v>-3905.1666666666665</v>
-      </c>
-    </row>
-    <row r="21" spans="5:17">
-      <c r="E21">
-        <v>14</v>
-      </c>
-      <c r="F21">
-        <v>24</v>
-      </c>
-      <c r="G21">
-        <v>34</v>
-      </c>
-      <c r="H21">
-        <v>44</v>
-      </c>
-      <c r="I21">
-        <v>54</v>
-      </c>
-      <c r="J21">
-        <v>64</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="5"/>
-        <v>-103.5</v>
-      </c>
-      <c r="O21">
+        <v>-39.946307052744437</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" si="8"/>
+        <v>-6.6577178421240726</v>
+      </c>
+      <c r="S15" s="8">
+        <f t="shared" si="10"/>
+        <v>0.69</v>
+      </c>
+      <c r="V15" s="11">
+        <f t="shared" si="9"/>
+        <v>-5.9677178421240722</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="E16" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="F16" s="12">
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="G16" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M16" s="8">
         <f t="shared" si="6"/>
-        <v>-24043</v>
-      </c>
-      <c r="Q21" s="4">
+        <v>-103.47377409062793</v>
+      </c>
+      <c r="O16" s="8">
         <f t="shared" si="7"/>
-        <v>-4007.1666666666665</v>
-      </c>
-    </row>
-    <row r="22" spans="5:17">
-      <c r="M22">
-        <f t="shared" si="5"/>
-        <v>-104.5</v>
+        <v>-46.065070456690705</v>
+      </c>
+      <c r="Q16" s="11">
+        <f t="shared" si="8"/>
+        <v>-7.6775117427817836</v>
+      </c>
+      <c r="S16" s="8">
+        <f t="shared" si="10"/>
+        <v>0.69</v>
+      </c>
+      <c r="V16" s="11">
+        <f t="shared" si="9"/>
+        <v>-6.9875117427817841</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="8">
+        <f t="shared" si="6"/>
+        <v>-104.47003594823543</v>
       </c>
     </row>
   </sheetData>
@@ -1204,227 +1380,227 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="7"/>
-    <col min="2" max="2" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="7"/>
-    <col min="6" max="6" width="4.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.7109375" style="7"/>
+    <col min="1" max="1" width="8.75" style="2"/>
+    <col min="2" max="2" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="2"/>
+    <col min="6" max="6" width="4.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="9" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="C3" s="7" t="s">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
-      <c r="C4" s="7">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="2">
         <f>C4</f>
         <v>1</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="2">
         <f>D4</f>
         <v>4</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="2">
         <f>POWER(C4,2)</f>
         <v>1</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="2">
         <f>C4*D4</f>
         <v>4</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="2">
         <f>POWER(D4,2)</f>
         <v>16</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="2">
         <f>POWER(C4,3)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="2">
         <f>POWER(C4,2)*D4</f>
         <v>4</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="2">
         <f>C4*POWER(D4,2)</f>
         <v>16</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="2">
         <f>POWER(D4,3)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
-      <c r="C5" s="7">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="2">
         <f t="shared" ref="G5:G6" si="0">C5</f>
         <v>2</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="2">
         <f t="shared" ref="H5:H6" si="1">D5</f>
         <v>5</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="2">
         <f t="shared" ref="I5:I6" si="2">POWER(C5,2)</f>
         <v>4</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="2">
         <f t="shared" ref="J5:J6" si="3">C5*D5</f>
         <v>10</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="2">
         <f t="shared" ref="K5:K6" si="4">POWER(D5,2)</f>
         <v>25</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="2">
         <f t="shared" ref="L5:L6" si="5">POWER(C5,3)</f>
         <v>8</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="2">
         <f t="shared" ref="M5:M6" si="6">POWER(C5,2)*D5</f>
         <v>20</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="2">
         <f t="shared" ref="N5:N6" si="7">C5*POWER(D5,2)</f>
         <v>50</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="2">
         <f t="shared" ref="O5:O6" si="8">POWER(D5,3)</f>
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
-      <c r="C6" s="7">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="2">
         <v>6</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="2">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="2">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="2">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="2">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="2">
         <f t="shared" si="7"/>
         <v>108</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="2">
         <f t="shared" si="8"/>
         <v>216</v>
       </c>
@@ -1437,7 +1613,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1447,24 +1623,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>29</v>
       </c>
@@ -1490,7 +1666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>100</v>
       </c>
@@ -1504,7 +1680,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>2</v>
       </c>
@@ -1517,7 +1693,7 @@
         <v>2.0459999999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>3</v>
       </c>
@@ -1530,8 +1706,8 @@
         <v>3.069</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="F6" s="12">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F6" s="5">
         <f>SUM(F4:F5)</f>
         <v>13</v>
       </c>
@@ -1539,7 +1715,7 @@
         <f>E3*F6/2*B3</f>
         <v>1495</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="4">
         <f>D3+G6</f>
         <v>1513</v>
       </c>

--- a/excel/logistic_regression.xlsx
+++ b/excel/logistic_regression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\studyAI\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5610B1A9-09D0-4F91-BBC7-5C0EF4CEEF1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B073BC8-B141-4E03-A6C1-30C6DC1411F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1233,12 +1233,12 @@
         <v>-4.6181300408086514</v>
       </c>
       <c r="S13" s="8">
-        <f>$W$4*C5</f>
-        <v>0.69</v>
+        <f>$W$4*C5/6</f>
+        <v>0.11499999999999999</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" ref="V13:V16" si="9">Q13+S13</f>
-        <v>-3.9281300408086515</v>
+        <v>-4.5031300408086512</v>
       </c>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.2">
@@ -1273,12 +1273,12 @@
         <v>-5.6379239414663616</v>
       </c>
       <c r="S14" s="8">
-        <f t="shared" ref="S14:S16" si="10">$W$4*C6</f>
-        <v>0.69</v>
+        <f t="shared" ref="S14:S16" si="10">$W$4*C6/6</f>
+        <v>0.11499999999999999</v>
       </c>
       <c r="V14" s="11">
         <f t="shared" si="9"/>
-        <v>-4.9479239414663621</v>
+        <v>-5.5229239414663613</v>
       </c>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.2">
@@ -1314,11 +1314,11 @@
       </c>
       <c r="S15" s="8">
         <f t="shared" si="10"/>
-        <v>0.69</v>
+        <v>0.11499999999999999</v>
       </c>
       <c r="V15" s="11">
         <f t="shared" si="9"/>
-        <v>-5.9677178421240722</v>
+        <v>-6.5427178421240724</v>
       </c>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.2">
@@ -1354,11 +1354,11 @@
       </c>
       <c r="S16" s="8">
         <f t="shared" si="10"/>
-        <v>0.69</v>
+        <v>0.11499999999999999</v>
       </c>
       <c r="V16" s="11">
         <f t="shared" si="9"/>
-        <v>-6.9875117427817841</v>
+        <v>-7.5625117427817834</v>
       </c>
     </row>
     <row r="17" spans="13:13" x14ac:dyDescent="0.2">
